--- a/eth-gas/data/zkp_cost.xlsx
+++ b/eth-gas/data/zkp_cost.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\temp\QuickTest\zkConsent\zkconsent\eth-gas\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2703E53-818A-4DC2-9ED7-606CD7EC3C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5089AAA3-27CC-435B-91C6-D8FE8D40B00A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2EA32A66-CBFD-4349-B916-33D1DD770318}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>Consent Minting</t>
   </si>
@@ -103,6 +103,12 @@
   </si>
   <si>
     <t>Median EUR</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>SD EUR</t>
   </si>
 </sst>
 </file>
@@ -474,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AF6621A-EB18-4E2A-8E5C-70769104526F}">
-  <dimension ref="A3:J21"/>
+  <dimension ref="A3:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -491,13 +497,14 @@
     <col min="7" max="8" width="13" style="2" customWidth="1"/>
     <col min="9" max="9" width="14.7109375" style="2" customWidth="1"/>
     <col min="10" max="10" width="17.7109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" style="2" customWidth="1"/>
     <col min="12" max="12" width="18.7109375" customWidth="1"/>
     <col min="13" max="13" width="16.140625" customWidth="1"/>
     <col min="14" max="14" width="14.5703125" customWidth="1"/>
     <col min="15" max="15" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
@@ -519,8 +526,11 @@
       <c r="J3" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K3" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
@@ -553,8 +563,12 @@
         <f>F4*B21*(10^-18)*B14</f>
         <v>97.38352556327041</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K4" s="2">
+        <f>F4*B22*(10^-18)*B14</f>
+        <v>38.727053405386492</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
@@ -587,8 +601,12 @@
         <f>F5*B21*(10^-18)*B14</f>
         <v>311.63203558484622</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K5" s="2">
+        <f>F5*B22*(10^-18)*B14</f>
+        <v>123.92846136056801</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
@@ -621,8 +639,12 @@
         <f>F6*B21*(10^-18)*B14</f>
         <v>456.1033185247457</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K6" s="2">
+        <f>F6*B22*(10^-18)*B14</f>
+        <v>181.38116763297683</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
@@ -655,8 +677,12 @@
         <f>F7*B21*(10^-18)*B14</f>
         <v>553.48496759497107</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K7" s="2">
+        <f>F7*B22*(10^-18)*B14</f>
+        <v>220.10747480283783</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
@@ -667,7 +693,7 @@
         <v>747320</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
@@ -675,10 +701,10 @@
         <v>233530</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
@@ -686,7 +712,7 @@
         <v>1093777</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>8</v>
       </c>
@@ -694,7 +720,7 @@
         <v>1327307</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>10</v>
       </c>
@@ -702,7 +728,7 @@
         <v>3497.82</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B17" s="4" t="s">
         <v>11</v>
       </c>
@@ -713,8 +739,9 @@
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K17" s="4"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>12</v>
       </c>
@@ -722,7 +749,7 @@
         <v>41802844503</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>13</v>
       </c>
@@ -730,7 +757,7 @@
         <v>1804238207798</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>14</v>
       </c>
@@ -738,12 +765,20 @@
         <v>127059985291.61</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B21" s="2">
         <v>119216670515</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="2">
+        <v>47409562748.343384</v>
       </c>
     </row>
   </sheetData>
